--- a/Fake-Team-Data.xlsx
+++ b/Fake-Team-Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work-floor-on-PC\Soham\SNHU\2024-A-3-CS-250-10295\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F6F36B-1F39-496A-BC1D-BB87AF5F35F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D90CA1-1ED7-426F-84F1-53F098E21BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D35410E-BB47-49BC-8A6D-9D0842E8C839}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D35410E-BB47-49BC-8A6D-9D0842E8C839}"/>
   </bookViews>
   <sheets>
     <sheet name="Coaches" sheetId="1" r:id="rId1"/>
     <sheet name="Athletes" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Validation Variables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>First Name</t>
   </si>
@@ -149,14 +150,80 @@
   </si>
   <si>
     <t>Yimby</t>
+  </si>
+  <si>
+    <t>Theo</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Flambeau</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Bogart</t>
+  </si>
+  <si>
+    <t>Humphrey</t>
+  </si>
+  <si>
+    <t>Student Classification</t>
+  </si>
+  <si>
+    <t>Freshman</t>
+  </si>
+  <si>
+    <t>Sophomore</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NOTE: Don't modify the data below without consulting Soham or withour understanding what it does! It is used for the simple dropdowns in the other sheets.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,9 +251,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,30 +578,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A00A4E2-562C-4769-A598-1CBA7DF817BF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,7 +612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +623,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,7 +634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,30 +652,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFFDF5C-D47F-4EF0-9150-4D9B928B9247}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -612,8 +690,11 @@
       <c r="C2" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,8 +704,11 @@
       <c r="C3" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,8 +718,11 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -645,8 +732,11 @@
       <c r="C5" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -656,8 +746,11 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -667,8 +760,11 @@
       <c r="C7" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -678,8 +774,11 @@
       <c r="C8" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -689,8 +788,11 @@
       <c r="C9" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -700,8 +802,11 @@
       <c r="C10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -711,8 +816,11 @@
       <c r="C11" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -722,8 +830,11 @@
       <c r="C12" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -733,8 +844,11 @@
       <c r="C13" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -744,8 +858,11 @@
       <c r="C14" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -755,8 +872,11 @@
       <c r="C15" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -766,8 +886,11 @@
       <c r="C16" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -777,8 +900,11 @@
       <c r="C17" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -788,8 +914,154 @@
       <c r="C18" s="1">
         <v>19</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F22025FB-B9F8-4A29-873A-BB84F4B0D19D}">
+          <x14:formula1>
+            <xm:f>'Data Validation Variables'!$A$3:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4879DDDD-4478-4244-B79B-F8BF01740B8C}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>